--- a/pred_ohlcv/54_21/2020-01-23 CON ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-23 CON ohlcv.xlsx
@@ -2472,7 +2472,7 @@
         <v>-5215583.927499998</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-5131480.607499998</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-5147500.287499998</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-5050380.977499998</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-5071406.807499998</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-4973286.267499998</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-4973286.267499998</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-5030356.377499999</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-5025646.5915</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-4920517.4415</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-4842421.501499999</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-4951283.2365</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-4947694.951099999</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-4848573.1811</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-4870183.6065</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-4778583.6965</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-4643346.3011</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-4666374.5911</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-4581270.0411</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-4743469.3011</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-4743469.3011</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-4743469.3011</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-4847597.2211</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-4764495.1311</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-4700416.4111</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-4733457.0011</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-4684396.7311</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-4755163.6671</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-4655040.6671</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-4641023.4471</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-4685077.567100001</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-4648032.057100001</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-4693087.4071</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-4603977.937100001</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-4624002.5371</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-4624002.5371</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-4588959.4871</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-4573260.2011</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-1401019.4912</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-1654642.6524</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-1710711.5324</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-1786805.0124</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-1895501.7303</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-1832424.2403</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-1772670.7907</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-1719605.6007</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-1645514.5807</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-1706589.6107</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-1678555.1707</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-1725612.9807</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-1831743.3607</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-1934870.0507</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-1825735.980699999</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-1796700.3107</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-1823733.5207</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-1741632.660699999</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-1776315.2677</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-1745277.1377</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-1745277.1377</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-1761296.8177</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-1625564.2331</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-1646590.0631</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-1548469.5231</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-1584513.8031</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-1565490.4331</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-1603537.1731</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-1643586.3731</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-1729692.1531</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-1612548.2431</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-1547468.2931</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-1607542.0931</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-1675457.5261</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-1598011.5448</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-1458885.7988</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-1548996.498799999</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-1650120.728799999</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-1650120.728799999</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-1737227.738799999</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-1737227.738799999</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-1815323.678799999</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-1815323.678799999</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-1815323.678799999</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-1815323.678799999</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-1873056.111799999</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-1850027.821799999</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-1850027.821799999</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-1850027.821799999</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-1850027.821799999</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-1850027.821799999</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-1853767.223899999</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-1892815.193899999</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-1996943.113899999</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-1924854.553899999</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-1935868.083899999</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-1871789.363899999</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-1904829.953899999</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-1953890.223899999</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-1939873.003899999</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-1984928.353899999</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-1984313.131899999</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-2073422.601899999</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-2053398.001899999</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-2163533.301899999</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-2165888.346899999</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-2281029.796899999</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-2390171.092599999</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-2468730.168999999</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-2301152.238499999</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-2301152.238499999</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-2301152.238499999</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-2301152.238499999</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-2205835.388499999</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-2261904.268499999</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-2211306.109499999</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-2237338.089499999</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-2237338.089499999</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-2237338.089499999</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-2332870.660899999</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-2381930.930899999</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>-7016624.797254349</v>
       </c>
       <c r="H587">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>-7047862.927254349</v>
       </c>
       <c r="H588">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>-7047862.927254349</v>
       </c>
       <c r="H589">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>-7047862.927254349</v>
       </c>
       <c r="H590">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>-7047862.927254349</v>
       </c>
       <c r="H591">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>-7146407.989254349</v>
       </c>
       <c r="H592">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>-7110363.709254349</v>
       </c>
       <c r="H593">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>-7110363.709254349</v>
       </c>
       <c r="H594">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>-7110363.709254349</v>
       </c>
       <c r="H595">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>-7110363.709254349</v>
       </c>
       <c r="H596">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>-7110363.709254349</v>
       </c>
       <c r="H597">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>-7110363.709254349</v>
       </c>
       <c r="H598">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>-7110363.709254349</v>
       </c>
       <c r="H599">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>-7110363.709254349</v>
       </c>
       <c r="H600">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>-7110363.709254349</v>
       </c>
       <c r="H601">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>-7110363.709254349</v>
       </c>
       <c r="H602">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>-7110363.709254349</v>
       </c>
       <c r="H603">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>-7110363.709254349</v>
       </c>
       <c r="H604">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>-7110363.709254349</v>
       </c>
       <c r="H605">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>-7110364.270154349</v>
       </c>
       <c r="H606">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>-7197471.280154348</v>
       </c>
       <c r="H607">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>-7197471.280154348</v>
       </c>
       <c r="H608">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>-7119375.340154348</v>
       </c>
       <c r="H609">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>-7119375.340154348</v>
       </c>
       <c r="H610">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>-7218497.110154347</v>
       </c>
       <c r="H611">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>-7237379.925254348</v>
       </c>
       <c r="H612">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>-7294450.035254348</v>
       </c>
       <c r="H613">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>-7111769.898654348</v>
       </c>
       <c r="H614">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>-7356960.507654348</v>
       </c>
       <c r="H615">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>-7263846.117654349</v>
       </c>
       <c r="H616">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>-7340940.827654349</v>
       </c>
       <c r="H617">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>-7600075.67515435</v>
       </c>
       <c r="H643">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>-7688183.91515435</v>
       </c>
       <c r="H644">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>-7640124.87515435</v>
       </c>
       <c r="H645">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>-7713214.66515435</v>
       </c>
       <c r="H646">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>-7796316.75515435</v>
       </c>
       <c r="H647">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>-7809332.74515435</v>
       </c>
       <c r="H648">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>-7839369.64515435</v>
       </c>
       <c r="H649">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>-7670586.29715435</v>
       </c>
       <c r="H653">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>-7670386.29715435</v>
       </c>
       <c r="H654">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>-10342824.26825435</v>
       </c>
       <c r="H669">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>-10529740.82105435</v>
       </c>
       <c r="H682">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>-10500705.15105435</v>
       </c>
       <c r="H683">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>-10473671.94105435</v>
       </c>
       <c r="H684">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>-10555772.80105435</v>
       </c>
       <c r="H685">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18228,7 +18228,7 @@
         <v>-10589814.62105435</v>
       </c>
       <c r="H686">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="687" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>-10558776.49105434</v>
       </c>
       <c r="H687">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>-10472550.42255435</v>
       </c>
       <c r="H688">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>-10556653.74255435</v>
       </c>
       <c r="H689">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -18332,7 +18332,7 @@
         <v>-10540634.06255435</v>
       </c>
       <c r="H690">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="691" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>-10443514.75255435</v>
       </c>
       <c r="H691">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>-10464540.58255435</v>
       </c>
       <c r="H692">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>-10562661.12255435</v>
       </c>
       <c r="H693">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>-10526616.84255435</v>
       </c>
       <c r="H694">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>-10507593.47255435</v>
       </c>
       <c r="H695">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>-10545640.21255435</v>
       </c>
       <c r="H696">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>-10419485.23255435</v>
       </c>
       <c r="H697">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>-10424774.56855435</v>
       </c>
       <c r="H704">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>-11593728.94425434</v>
       </c>
       <c r="H751">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>-11563692.04425434</v>
       </c>
       <c r="H752">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>-10523522.02555434</v>
       </c>
       <c r="H753">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>-10673706.52555434</v>
       </c>
       <c r="H754">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>-10753804.92555434</v>
       </c>
       <c r="H755">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>-10657686.84555434</v>
       </c>
       <c r="H756">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>-10625647.48555434</v>
       </c>
       <c r="H757">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>-10625647.48555434</v>
       </c>
       <c r="H758">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>-10626456.47955434</v>
       </c>
       <c r="H759">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>-10576394.97955434</v>
       </c>
       <c r="H760">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>-10377056.99605434</v>
       </c>
       <c r="H761">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>-10389071.75605434</v>
       </c>
       <c r="H762">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>-10457155.39605434</v>
       </c>
       <c r="H763">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>-10394077.90605434</v>
       </c>
       <c r="H764">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>-10489194.75605435</v>
       </c>
       <c r="H767">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>-10431123.41605435</v>
       </c>
       <c r="H768">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>-5186289.965354347</v>
       </c>
       <c r="H770">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20620,7 +20620,7 @@
         <v>-5178752.706354345</v>
       </c>
       <c r="H778">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="779" spans="1:8">
@@ -20724,7 +20724,7 @@
         <v>-5450086.036354346</v>
       </c>
       <c r="H782">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="783" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>-5448083.576354346</v>
       </c>
       <c r="H784">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>-5603674.121354345</v>
       </c>
       <c r="H792">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>-5791501.757731814</v>
       </c>
       <c r="H797">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -21712,7 +21712,7 @@
         <v>-8791274.892572433</v>
       </c>
       <c r="H820">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="821" spans="1:8">
@@ -21816,7 +21816,7 @@
         <v>-8860359.762572432</v>
       </c>
       <c r="H824">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="825" spans="1:8">
@@ -21842,7 +21842,7 @@
         <v>-8860359.762572432</v>
       </c>
       <c r="H825">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="826" spans="1:8">
@@ -21868,7 +21868,7 @@
         <v>-8849346.232572433</v>
       </c>
       <c r="H826">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="827" spans="1:8">
@@ -22024,7 +22024,7 @@
         <v>-8932360.199172433</v>
       </c>
       <c r="H832">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="833" spans="1:8">
@@ -22050,7 +22050,7 @@
         <v>-8976414.319172433</v>
       </c>
       <c r="H833">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="834" spans="1:8">
@@ -22076,7 +22076,7 @@
         <v>-8938671.953172432</v>
       </c>
       <c r="H834">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="835" spans="1:8">
@@ -22596,7 +22596,7 @@
         <v>-9182952.519772433</v>
       </c>
       <c r="H854">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>-9111865.189772433</v>
       </c>
       <c r="H856">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -22700,7 +22700,7 @@
         <v>-9190962.359772433</v>
       </c>
       <c r="H858">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="859" spans="1:8">
@@ -22726,7 +22726,7 @@
         <v>-9190962.359772433</v>
       </c>
       <c r="H859">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="860" spans="1:8">
@@ -22752,7 +22752,7 @@
         <v>-9223001.719772432</v>
       </c>
       <c r="H860">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="861" spans="1:8">
@@ -22778,7 +22778,7 @@
         <v>-9127884.869772432</v>
       </c>
       <c r="H861">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="862" spans="1:8">
@@ -22804,7 +22804,7 @@
         <v>-9015888.493872432</v>
       </c>
       <c r="H862">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="863" spans="1:8">
@@ -22830,7 +22830,7 @@
         <v>-8977677.753872432</v>
       </c>
       <c r="H863">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="864" spans="1:8">
@@ -22908,7 +22908,7 @@
         <v>-8928969.916872431</v>
       </c>
       <c r="H866">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="867" spans="1:8">
@@ -22934,7 +22934,7 @@
         <v>-8952999.43687243</v>
       </c>
       <c r="H867">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="868" spans="1:8">
@@ -22960,7 +22960,7 @@
         <v>-9029092.916872431</v>
       </c>
       <c r="H868">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="869" spans="1:8">
@@ -22986,7 +22986,7 @@
         <v>-8971021.576872431</v>
       </c>
       <c r="H869">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="870" spans="1:8">
@@ -23012,7 +23012,7 @@
         <v>-8868896.11687243</v>
       </c>
       <c r="H870">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="871" spans="1:8">
@@ -23038,7 +23038,7 @@
         <v>-8846298.91387243</v>
       </c>
       <c r="H871">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="872" spans="1:8">
@@ -23090,7 +23090,7 @@
         <v>-8511027.552672431</v>
       </c>
       <c r="H873">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="874" spans="1:8">
@@ -23116,7 +23116,7 @@
         <v>-8553079.212672431</v>
       </c>
       <c r="H874">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="875" spans="1:8">
@@ -23142,7 +23142,7 @@
         <v>-8490634.499672431</v>
       </c>
       <c r="H875">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="876" spans="1:8">
@@ -23168,7 +23168,7 @@
         <v>-8543699.689672431</v>
       </c>
       <c r="H876">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="877" spans="1:8">
@@ -23194,7 +23194,7 @@
         <v>-8469608.669672431</v>
       </c>
       <c r="H877">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="878" spans="1:8">
@@ -23220,7 +23220,7 @@
         <v>-8530683.699672431</v>
       </c>
       <c r="H878">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="879" spans="1:8">
@@ -23376,7 +23376,7 @@
         <v>-8450064.65967243</v>
       </c>
       <c r="H884">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="885" spans="1:8">
@@ -23402,7 +23402,7 @@
         <v>-8367963.799672429</v>
       </c>
       <c r="H885">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="886" spans="1:8">
@@ -23428,7 +23428,7 @@
         <v>-8367963.799672429</v>
       </c>
       <c r="H886">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="887" spans="1:8">
@@ -23454,7 +23454,7 @@
         <v>-8399001.929672429</v>
       </c>
       <c r="H887">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="888" spans="1:8">
@@ -23480,7 +23480,7 @@
         <v>-8611726.10707243</v>
       </c>
       <c r="H888">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="889" spans="1:8">
@@ -23506,7 +23506,7 @@
         <v>-8729871.24707243</v>
       </c>
       <c r="H889">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="890" spans="1:8">
@@ -23584,7 +23584,7 @@
         <v>-8810970.877072429</v>
       </c>
       <c r="H892">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="893" spans="1:8">
@@ -23610,7 +23610,7 @@
         <v>-8772924.137072429</v>
       </c>
       <c r="H893">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="894" spans="1:8">
@@ -23636,7 +23636,7 @@
         <v>-8732874.93707243</v>
       </c>
       <c r="H894">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="895" spans="1:8">
@@ -23662,7 +23662,7 @@
         <v>-8905701.519772429</v>
       </c>
       <c r="H895">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="896" spans="1:8">
@@ -23688,7 +23688,7 @@
         <v>-8997977.679772429</v>
       </c>
       <c r="H896">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="897" spans="1:8">
@@ -23714,7 +23714,7 @@
         <v>-8972946.929772429</v>
       </c>
       <c r="H897">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="898" spans="1:8">
@@ -23740,7 +23740,7 @@
         <v>-9038026.879772428</v>
       </c>
       <c r="H898">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="899" spans="1:8">
@@ -23766,7 +23766,7 @@
         <v>-8820932.782372428</v>
       </c>
       <c r="H899">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="900" spans="1:8">
@@ -23792,7 +23792,7 @@
         <v>-8753377.169072429</v>
       </c>
       <c r="H900">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="901" spans="1:8">
@@ -23818,7 +23818,7 @@
         <v>-8819458.349072428</v>
       </c>
       <c r="H901">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="902" spans="1:8">
@@ -23844,7 +23844,7 @@
         <v>-8628223.419072429</v>
       </c>
       <c r="H902">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="903" spans="1:8">
@@ -23870,7 +23870,7 @@
         <v>-8683291.069072429</v>
       </c>
       <c r="H903">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="904" spans="1:8">
@@ -23896,7 +23896,7 @@
         <v>-8596184.059072429</v>
       </c>
       <c r="H904">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="905" spans="1:8">
@@ -23922,7 +23922,7 @@
         <v>-8491054.909072429</v>
       </c>
       <c r="H905">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="906" spans="1:8">
@@ -23948,7 +23948,7 @@
         <v>-8412958.969072429</v>
       </c>
       <c r="H906">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="907" spans="1:8">
@@ -23974,7 +23974,7 @@
         <v>-8521091.809072429</v>
       </c>
       <c r="H907">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="908" spans="1:8">
@@ -24000,7 +24000,7 @@
         <v>-8421970.03907243</v>
       </c>
       <c r="H908">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="909" spans="1:8">
@@ -24026,7 +24026,7 @@
         <v>-8457013.089072431</v>
       </c>
       <c r="H909">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="910" spans="1:8">
@@ -24052,7 +24052,7 @@
         <v>-8457013.089072431</v>
       </c>
       <c r="H910">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="911" spans="1:8">
@@ -24078,7 +24078,7 @@
         <v>-8433984.799072431</v>
       </c>
       <c r="H911">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="912" spans="1:8">
@@ -24104,7 +24104,7 @@
         <v>-8519089.349072432</v>
       </c>
       <c r="H912">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="913" spans="1:8">
@@ -24130,7 +24130,7 @@
         <v>-8588174.219072431</v>
       </c>
       <c r="H913">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="914" spans="1:8">
@@ -24156,7 +24156,7 @@
         <v>-8495059.829072431</v>
       </c>
       <c r="H914">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="915" spans="1:8">
@@ -24182,7 +24182,7 @@
         <v>-8417965.11907243</v>
       </c>
       <c r="H915">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="916" spans="1:8">
@@ -24208,7 +24208,7 @@
         <v>-8457013.089072431</v>
       </c>
       <c r="H916">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="917" spans="1:8">
@@ -24234,7 +24234,7 @@
         <v>-8561141.00907243</v>
       </c>
       <c r="H917">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="918" spans="1:8">
@@ -24260,7 +24260,7 @@
         <v>-8633229.569072431</v>
       </c>
       <c r="H918">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="919" spans="1:8">
@@ -24286,7 +24286,7 @@
         <v>-8632492.664072432</v>
       </c>
       <c r="H919">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="920" spans="1:8">
@@ -24312,7 +24312,7 @@
         <v>-8707584.914072432</v>
       </c>
       <c r="H920">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="921" spans="1:8">
@@ -24338,7 +24338,7 @@
         <v>-8674544.324072432</v>
       </c>
       <c r="H921">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="922" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-23 CON ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-23 CON ohlcv.xlsx
@@ -2472,7 +2472,7 @@
         <v>-5215583.927499998</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-5131480.607499998</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-5147500.287499998</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-5050380.977499998</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-5071406.807499998</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-4973286.267499998</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-4973286.267499998</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-5030356.377499999</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-5025646.5915</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-4920517.4415</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-4842421.501499999</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-4951283.2365</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-4947694.951099999</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-4848573.1811</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-4870183.6065</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-4778583.6965</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-4643346.3011</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-4666374.5911</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-4581270.0411</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-4743469.3011</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-4743469.3011</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-4743469.3011</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-4847597.2211</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-4764495.1311</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-4700416.4111</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-4733457.0011</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-4684396.7311</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-4755163.6671</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-4655040.6671</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-4641023.4471</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-4685077.567100001</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-4648032.057100001</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-4693087.4071</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-4603977.937100001</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-4624002.5371</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-4624002.5371</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-4588959.4871</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-4573260.2011</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-1401019.4912</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-1654642.6524</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-1710711.5324</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-1786805.0124</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-1895501.7303</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-1832424.2403</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-1604817.3303</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-1699285.3833</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-1618185.7533</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-1719605.6007</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-1645514.5807</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-1706589.6107</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-1831743.3607</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-1745277.1377</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-1745277.1377</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-1625564.2331</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-1646590.0631</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-1548469.5231</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-1584513.8031</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-1565490.4331</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-1603537.1731</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-1643586.3731</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-1729692.1531</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-1612548.2431</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-1547468.2931</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-1607542.0931</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-1675457.5261</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-1598011.5448</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-1458885.7988</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-1548996.498799999</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-1650120.728799999</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-1650120.728799999</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-1737227.738799999</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-1737227.738799999</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-1815323.678799999</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-1815323.678799999</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-1815323.678799999</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-1815323.678799999</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-1873056.111799999</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-1850027.821799999</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-1850027.821799999</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-1850027.821799999</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-1850027.821799999</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-1850027.821799999</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-1853767.223899999</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-1892815.193899999</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-1996943.113899999</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-1935868.083899999</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-1871789.363899999</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-1904829.953899999</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-1953890.223899999</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-1983927.123899999</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-1939873.003899999</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-1984928.353899999</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-1984313.131899999</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-2073422.601899999</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-2053398.001899999</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-2163533.301899999</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-2165888.346899999</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-2167890.806899999</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-2226963.376899999</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-2281029.796899999</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-2381152.796899999</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-2422203.226899999</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>-7016624.797254349</v>
       </c>
       <c r="H587">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>-7047862.927254349</v>
       </c>
       <c r="H588">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>-7047862.927254349</v>
       </c>
       <c r="H589">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>-7047862.927254349</v>
       </c>
       <c r="H590">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>-7047862.927254349</v>
       </c>
       <c r="H591">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>-7146407.989254349</v>
       </c>
       <c r="H592">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>-7110363.709254349</v>
       </c>
       <c r="H593">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>-7110363.709254349</v>
       </c>
       <c r="H594">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>-7110363.709254349</v>
       </c>
       <c r="H595">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>-7110363.709254349</v>
       </c>
       <c r="H596">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>-7110363.709254349</v>
       </c>
       <c r="H597">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>-7110363.709254349</v>
       </c>
       <c r="H598">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>-7110363.709254349</v>
       </c>
       <c r="H599">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>-7110363.709254349</v>
       </c>
       <c r="H600">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>-7110363.709254349</v>
       </c>
       <c r="H601">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>-7110363.709254349</v>
       </c>
       <c r="H602">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>-7110363.709254349</v>
       </c>
       <c r="H603">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>-7110363.709254349</v>
       </c>
       <c r="H604">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>-7110363.709254349</v>
       </c>
       <c r="H605">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>-7110364.270154349</v>
       </c>
       <c r="H606">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>-7197471.280154348</v>
       </c>
       <c r="H607">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>-7197471.280154348</v>
       </c>
       <c r="H608">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>-7119375.340154348</v>
       </c>
       <c r="H609">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>-7119375.340154348</v>
       </c>
       <c r="H610">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>-7218497.110154347</v>
       </c>
       <c r="H611">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>-7237379.925254348</v>
       </c>
       <c r="H612">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>-7294450.035254348</v>
       </c>
       <c r="H613">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>-7111769.898654348</v>
       </c>
       <c r="H614">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>-7356960.507654348</v>
       </c>
       <c r="H615">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>-7263846.117654349</v>
       </c>
       <c r="H616">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>-7340940.827654349</v>
       </c>
       <c r="H617">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>-7600075.67515435</v>
       </c>
       <c r="H643">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>-7688183.91515435</v>
       </c>
       <c r="H644">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>-7640124.87515435</v>
       </c>
       <c r="H645">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>-7713214.66515435</v>
       </c>
       <c r="H646">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>-7796316.75515435</v>
       </c>
       <c r="H647">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>-7809332.74515435</v>
       </c>
       <c r="H648">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>-7839369.64515435</v>
       </c>
       <c r="H649">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>-7670586.29715435</v>
       </c>
       <c r="H653">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>-7670386.29715435</v>
       </c>
       <c r="H654">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>-10342824.26825435</v>
       </c>
       <c r="H669">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>-10529740.82105435</v>
       </c>
       <c r="H682">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>-10500705.15105435</v>
       </c>
       <c r="H683">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>-10473671.94105435</v>
       </c>
       <c r="H684">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>-10555772.80105435</v>
       </c>
       <c r="H685">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18228,7 +18228,7 @@
         <v>-10589814.62105435</v>
       </c>
       <c r="H686">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="687" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>-10558776.49105434</v>
       </c>
       <c r="H687">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>-10472550.42255435</v>
       </c>
       <c r="H688">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>-10556653.74255435</v>
       </c>
       <c r="H689">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -18332,7 +18332,7 @@
         <v>-10540634.06255435</v>
       </c>
       <c r="H690">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="691" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>-10443514.75255435</v>
       </c>
       <c r="H691">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>-10464540.58255435</v>
       </c>
       <c r="H692">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>-10562661.12255435</v>
       </c>
       <c r="H693">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>-10526616.84255435</v>
       </c>
       <c r="H694">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>-10507593.47255435</v>
       </c>
       <c r="H695">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>-10545640.21255435</v>
       </c>
       <c r="H696">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>-10419485.23255435</v>
       </c>
       <c r="H697">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>-10424774.56855435</v>
       </c>
       <c r="H704">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>-11593728.94425434</v>
       </c>
       <c r="H751">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>-11563692.04425434</v>
       </c>
       <c r="H752">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>-10523522.02555434</v>
       </c>
       <c r="H753">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>-10673706.52555434</v>
       </c>
       <c r="H754">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>-10753804.92555434</v>
       </c>
       <c r="H755">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>-10657686.84555434</v>
       </c>
       <c r="H756">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>-10625647.48555434</v>
       </c>
       <c r="H757">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>-10625647.48555434</v>
       </c>
       <c r="H758">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>-10626456.47955434</v>
       </c>
       <c r="H759">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>-10576394.97955434</v>
       </c>
       <c r="H760">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>-10377056.99605434</v>
       </c>
       <c r="H761">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>-10389071.75605434</v>
       </c>
       <c r="H762">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>-10457155.39605434</v>
       </c>
       <c r="H763">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>-10394077.90605434</v>
       </c>
       <c r="H764">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>-10489194.75605435</v>
       </c>
       <c r="H767">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>-10431123.41605435</v>
       </c>
       <c r="H768">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>-5186289.965354347</v>
       </c>
       <c r="H770">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20620,7 +20620,7 @@
         <v>-5178752.706354345</v>
       </c>
       <c r="H778">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="779" spans="1:8">
@@ -20724,7 +20724,7 @@
         <v>-5450086.036354346</v>
       </c>
       <c r="H782">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="783" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>-5448083.576354346</v>
       </c>
       <c r="H784">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>-5603674.121354345</v>
       </c>
       <c r="H792">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>-5791501.757731814</v>
       </c>
       <c r="H797">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -21894,7 +21894,7 @@
         <v>-8913424.952572433</v>
       </c>
       <c r="H827">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="828" spans="1:8">
@@ -21920,7 +21920,7 @@
         <v>-8880384.362572433</v>
       </c>
       <c r="H828">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="829" spans="1:8">
@@ -21946,7 +21946,7 @@
         <v>-9129444.942872433</v>
       </c>
       <c r="H829">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="830" spans="1:8">
@@ -21972,7 +21972,7 @@
         <v>-9059358.842872433</v>
       </c>
       <c r="H830">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="831" spans="1:8">
@@ -21998,7 +21998,7 @@
         <v>-8918342.979172433</v>
       </c>
       <c r="H831">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="832" spans="1:8">
@@ -22596,7 +22596,7 @@
         <v>-9182952.519772433</v>
       </c>
       <c r="H854">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>-9190962.359772433</v>
       </c>
       <c r="H857">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22856,7 +22856,7 @@
         <v>-8908945.316872431</v>
       </c>
       <c r="H864">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="865" spans="1:8">
@@ -22882,7 +22882,7 @@
         <v>-8972022.806872431</v>
       </c>
       <c r="H865">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="866" spans="1:8">
@@ -22934,7 +22934,7 @@
         <v>-8952999.43687243</v>
       </c>
       <c r="H867">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="868" spans="1:8">
@@ -22960,7 +22960,7 @@
         <v>-9029092.916872431</v>
       </c>
       <c r="H868">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="869" spans="1:8">
@@ -22986,7 +22986,7 @@
         <v>-8971021.576872431</v>
       </c>
       <c r="H869">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="870" spans="1:8">
@@ -23012,7 +23012,7 @@
         <v>-8868896.11687243</v>
       </c>
       <c r="H870">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="871" spans="1:8">
@@ -23038,7 +23038,7 @@
         <v>-8846298.91387243</v>
       </c>
       <c r="H871">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="872" spans="1:8">
@@ -23064,7 +23064,7 @@
         <v>-8429927.92267243</v>
       </c>
       <c r="H872">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="873" spans="1:8">
@@ -23090,7 +23090,7 @@
         <v>-8511027.552672431</v>
       </c>
       <c r="H873">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="874" spans="1:8">
@@ -23116,7 +23116,7 @@
         <v>-8553079.212672431</v>
       </c>
       <c r="H874">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="875" spans="1:8">
@@ -23142,7 +23142,7 @@
         <v>-8490634.499672431</v>
       </c>
       <c r="H875">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="876" spans="1:8">
@@ -23168,7 +23168,7 @@
         <v>-8543699.689672431</v>
       </c>
       <c r="H876">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="877" spans="1:8">
@@ -23194,7 +23194,7 @@
         <v>-8469608.669672431</v>
       </c>
       <c r="H877">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="878" spans="1:8">
@@ -23220,7 +23220,7 @@
         <v>-8530683.699672431</v>
       </c>
       <c r="H878">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="879" spans="1:8">
@@ -23376,7 +23376,7 @@
         <v>-8450064.65967243</v>
       </c>
       <c r="H884">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="885" spans="1:8">
@@ -23402,7 +23402,7 @@
         <v>-8367963.799672429</v>
       </c>
       <c r="H885">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="886" spans="1:8">
@@ -23428,7 +23428,7 @@
         <v>-8367963.799672429</v>
       </c>
       <c r="H886">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="887" spans="1:8">
@@ -23454,7 +23454,7 @@
         <v>-8399001.929672429</v>
       </c>
       <c r="H887">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="888" spans="1:8">
@@ -23480,7 +23480,7 @@
         <v>-8611726.10707243</v>
       </c>
       <c r="H888">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="889" spans="1:8">
@@ -23506,7 +23506,7 @@
         <v>-8729871.24707243</v>
       </c>
       <c r="H889">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="890" spans="1:8">
@@ -23584,7 +23584,7 @@
         <v>-8810970.877072429</v>
       </c>
       <c r="H892">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="893" spans="1:8">
@@ -23610,7 +23610,7 @@
         <v>-8772924.137072429</v>
       </c>
       <c r="H893">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="894" spans="1:8">
@@ -23636,7 +23636,7 @@
         <v>-8732874.93707243</v>
       </c>
       <c r="H894">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="895" spans="1:8">
@@ -23662,7 +23662,7 @@
         <v>-8905701.519772429</v>
       </c>
       <c r="H895">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="896" spans="1:8">
@@ -23688,7 +23688,7 @@
         <v>-8997977.679772429</v>
       </c>
       <c r="H896">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="897" spans="1:8">
@@ -23714,7 +23714,7 @@
         <v>-8972946.929772429</v>
       </c>
       <c r="H897">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="898" spans="1:8">
@@ -23740,7 +23740,7 @@
         <v>-9038026.879772428</v>
       </c>
       <c r="H898">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="899" spans="1:8">
@@ -23766,7 +23766,7 @@
         <v>-8820932.782372428</v>
       </c>
       <c r="H899">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="900" spans="1:8">
@@ -23792,7 +23792,7 @@
         <v>-8753377.169072429</v>
       </c>
       <c r="H900">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="901" spans="1:8">
@@ -23818,7 +23818,7 @@
         <v>-8819458.349072428</v>
       </c>
       <c r="H901">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="902" spans="1:8">
@@ -23844,7 +23844,7 @@
         <v>-8628223.419072429</v>
       </c>
       <c r="H902">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="903" spans="1:8">
@@ -23870,7 +23870,7 @@
         <v>-8683291.069072429</v>
       </c>
       <c r="H903">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="904" spans="1:8">
@@ -23896,7 +23896,7 @@
         <v>-8596184.059072429</v>
       </c>
       <c r="H904">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="905" spans="1:8">
@@ -23922,7 +23922,7 @@
         <v>-8491054.909072429</v>
       </c>
       <c r="H905">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="906" spans="1:8">
@@ -23948,7 +23948,7 @@
         <v>-8412958.969072429</v>
       </c>
       <c r="H906">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="907" spans="1:8">
@@ -23974,7 +23974,7 @@
         <v>-8521091.809072429</v>
       </c>
       <c r="H907">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="908" spans="1:8">
@@ -24000,7 +24000,7 @@
         <v>-8421970.03907243</v>
       </c>
       <c r="H908">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="909" spans="1:8">
@@ -24026,7 +24026,7 @@
         <v>-8457013.089072431</v>
       </c>
       <c r="H909">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="910" spans="1:8">
@@ -24052,7 +24052,7 @@
         <v>-8457013.089072431</v>
       </c>
       <c r="H910">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="911" spans="1:8">
@@ -24078,7 +24078,7 @@
         <v>-8433984.799072431</v>
       </c>
       <c r="H911">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="912" spans="1:8">
@@ -24104,7 +24104,7 @@
         <v>-8519089.349072432</v>
       </c>
       <c r="H912">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="913" spans="1:8">
@@ -24130,7 +24130,7 @@
         <v>-8588174.219072431</v>
       </c>
       <c r="H913">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="914" spans="1:8">
@@ -24156,7 +24156,7 @@
         <v>-8495059.829072431</v>
       </c>
       <c r="H914">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="915" spans="1:8">
@@ -24182,7 +24182,7 @@
         <v>-8417965.11907243</v>
       </c>
       <c r="H915">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="916" spans="1:8">
@@ -24208,7 +24208,7 @@
         <v>-8457013.089072431</v>
       </c>
       <c r="H916">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="917" spans="1:8">
@@ -24234,7 +24234,7 @@
         <v>-8561141.00907243</v>
       </c>
       <c r="H917">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="918" spans="1:8">
@@ -24260,7 +24260,7 @@
         <v>-8633229.569072431</v>
       </c>
       <c r="H918">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="919" spans="1:8">
@@ -24286,7 +24286,7 @@
         <v>-8632492.664072432</v>
       </c>
       <c r="H919">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="920" spans="1:8">
@@ -24312,7 +24312,7 @@
         <v>-8707584.914072432</v>
       </c>
       <c r="H920">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="921" spans="1:8">
@@ -24338,7 +24338,7 @@
         <v>-8674544.324072432</v>
       </c>
       <c r="H921">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="922" spans="1:8">
